--- a/data/pca/factorExposure/factorExposure_2009-08-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-08-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01767511922396225</v>
+        <v>0.01679439149010406</v>
       </c>
       <c r="C2">
-        <v>-0.00158472808365452</v>
+        <v>-0.0009153488163615993</v>
       </c>
       <c r="D2">
-        <v>-0.003780625009308094</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009598243202336636</v>
+      </c>
+      <c r="E2">
+        <v>-0.002275880928567411</v>
+      </c>
+      <c r="F2">
+        <v>-0.01309831767650165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09537128886661066</v>
+        <v>0.09388564415594364</v>
       </c>
       <c r="C4">
-        <v>-0.0211089065541222</v>
+        <v>-0.01475307894275966</v>
       </c>
       <c r="D4">
-        <v>-0.06604212281025368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08362960146552383</v>
+      </c>
+      <c r="E4">
+        <v>-0.02878600696180747</v>
+      </c>
+      <c r="F4">
+        <v>0.03291415532542435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1490135462584664</v>
+        <v>0.1593503078744095</v>
       </c>
       <c r="C6">
-        <v>-0.02720780946351751</v>
+        <v>-0.02705966776351934</v>
       </c>
       <c r="D6">
-        <v>0.02532811589616253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02543891282280896</v>
+      </c>
+      <c r="E6">
+        <v>-0.008914671263459449</v>
+      </c>
+      <c r="F6">
+        <v>0.04164734208631046</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06384892886728416</v>
+        <v>0.06349788152118264</v>
       </c>
       <c r="C7">
-        <v>-0.003084191988172166</v>
+        <v>0.0016867246726522</v>
       </c>
       <c r="D7">
-        <v>-0.03941762053811781</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05249604781419689</v>
+      </c>
+      <c r="E7">
+        <v>-0.01203783714301934</v>
+      </c>
+      <c r="F7">
+        <v>0.0468896411963268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06347823426868818</v>
+        <v>0.05778736074721155</v>
       </c>
       <c r="C8">
-        <v>0.009668657568283581</v>
+        <v>0.0131051438487068</v>
       </c>
       <c r="D8">
-        <v>-0.01784702881522985</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03186307957569055</v>
+      </c>
+      <c r="E8">
+        <v>-0.01768422331891329</v>
+      </c>
+      <c r="F8">
+        <v>-0.02593225449650859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07345393767748704</v>
+        <v>0.07078004473702293</v>
       </c>
       <c r="C9">
-        <v>-0.01737508163559631</v>
+        <v>-0.01032130960482148</v>
       </c>
       <c r="D9">
-        <v>-0.06839605672131539</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08719490055422134</v>
+      </c>
+      <c r="E9">
+        <v>-0.02388340162722791</v>
+      </c>
+      <c r="F9">
+        <v>0.04702120617322741</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08278086110105677</v>
+        <v>0.09036976149524749</v>
       </c>
       <c r="C10">
-        <v>-0.01202803587167143</v>
+        <v>-0.0207065565111338</v>
       </c>
       <c r="D10">
-        <v>0.1666317456463582</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1629610382464194</v>
+      </c>
+      <c r="E10">
+        <v>0.03204391485641617</v>
+      </c>
+      <c r="F10">
+        <v>-0.05754515063340204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09309207064518714</v>
+        <v>0.08847339323095778</v>
       </c>
       <c r="C11">
-        <v>-0.01847315911806795</v>
+        <v>-0.01049690148868114</v>
       </c>
       <c r="D11">
-        <v>-0.09555292607331704</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1170527782478781</v>
+      </c>
+      <c r="E11">
+        <v>-0.04642358534251406</v>
+      </c>
+      <c r="F11">
+        <v>0.02301578494337562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09916506556461499</v>
+        <v>0.09181888344733584</v>
       </c>
       <c r="C12">
-        <v>-0.01625442949938507</v>
+        <v>-0.007815675263195907</v>
       </c>
       <c r="D12">
-        <v>-0.09893730947628498</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1318136180584733</v>
+      </c>
+      <c r="E12">
+        <v>-0.04581380335891286</v>
+      </c>
+      <c r="F12">
+        <v>0.03114912726138752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04399463280439613</v>
+        <v>0.04116855037584257</v>
       </c>
       <c r="C13">
-        <v>-0.006162796354226906</v>
+        <v>-0.002405937910715414</v>
       </c>
       <c r="D13">
-        <v>-0.03012941509605492</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05346427092408844</v>
+      </c>
+      <c r="E13">
+        <v>0.004039125026058549</v>
+      </c>
+      <c r="F13">
+        <v>0.0008290960387249699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01994857680550259</v>
+        <v>0.02417410145026289</v>
       </c>
       <c r="C14">
-        <v>-0.015400942810328</v>
+        <v>-0.01385876847549771</v>
       </c>
       <c r="D14">
-        <v>-0.02411469872112655</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03365163721925666</v>
+      </c>
+      <c r="E14">
+        <v>-0.01905870087107463</v>
+      </c>
+      <c r="F14">
+        <v>0.01420479159132254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03495087478047499</v>
+        <v>0.033087701075508</v>
       </c>
       <c r="C15">
-        <v>-0.008010320853160098</v>
+        <v>-0.004726521897347308</v>
       </c>
       <c r="D15">
-        <v>-0.02944233030326369</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04512015216888571</v>
+      </c>
+      <c r="E15">
+        <v>-0.005943449492806443</v>
+      </c>
+      <c r="F15">
+        <v>0.02549263751051645</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07887057144192697</v>
+        <v>0.07445492633440276</v>
       </c>
       <c r="C16">
-        <v>-0.0089725803563194</v>
+        <v>-0.001075294378672552</v>
       </c>
       <c r="D16">
-        <v>-0.09820054577197822</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1275729417054847</v>
+      </c>
+      <c r="E16">
+        <v>-0.06055690160599494</v>
+      </c>
+      <c r="F16">
+        <v>0.02750468909761056</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0008029739541035742</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0002072364502905783</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001593566847676541</v>
+      </c>
+      <c r="E17">
+        <v>-0.0009752262653100601</v>
+      </c>
+      <c r="F17">
+        <v>-0.002367028281075513</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.0173355364988641</v>
+        <v>0.03661870595614968</v>
       </c>
       <c r="C18">
-        <v>0.003080609958963802</v>
+        <v>0.002925587646135872</v>
       </c>
       <c r="D18">
-        <v>-0.02996433243192745</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01552340780671771</v>
+      </c>
+      <c r="E18">
+        <v>0.008805127579984478</v>
+      </c>
+      <c r="F18">
+        <v>-0.008374165934233103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06597020952778047</v>
+        <v>0.06242496816863857</v>
       </c>
       <c r="C20">
-        <v>-0.006838177230694578</v>
+        <v>-0.0002432037441515949</v>
       </c>
       <c r="D20">
-        <v>-0.05028712939478452</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07683034863040249</v>
+      </c>
+      <c r="E20">
+        <v>-0.05536701583068059</v>
+      </c>
+      <c r="F20">
+        <v>0.03017744172149638</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04093735288073671</v>
+        <v>0.04089628827401075</v>
       </c>
       <c r="C21">
-        <v>-0.01032101027540623</v>
+        <v>-0.006445035608893679</v>
       </c>
       <c r="D21">
-        <v>-0.02925939498690975</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03925319245705028</v>
+      </c>
+      <c r="E21">
+        <v>0.000232324117491895</v>
+      </c>
+      <c r="F21">
+        <v>-0.02393555245094206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04072306603405607</v>
+        <v>0.04321231674934599</v>
       </c>
       <c r="C22">
-        <v>-0.000782680667151157</v>
+        <v>-0.0004912542282963932</v>
       </c>
       <c r="D22">
-        <v>0.0113897254812434</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.004098115506736237</v>
+      </c>
+      <c r="E22">
+        <v>-0.03667063483251145</v>
+      </c>
+      <c r="F22">
+        <v>-0.03870575408192806</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04068645281622092</v>
+        <v>0.04318808020482929</v>
       </c>
       <c r="C23">
-        <v>-0.0007731009561719762</v>
+        <v>-0.0004827375525367318</v>
       </c>
       <c r="D23">
-        <v>0.01137038121393625</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.004113625710478568</v>
+      </c>
+      <c r="E23">
+        <v>-0.03685350131998651</v>
+      </c>
+      <c r="F23">
+        <v>-0.03866563082214523</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08457488621210461</v>
+        <v>0.08026281797336234</v>
       </c>
       <c r="C24">
-        <v>-0.009435906403082284</v>
+        <v>-0.001823667536841796</v>
       </c>
       <c r="D24">
-        <v>-0.1028518279422801</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1199449017033706</v>
+      </c>
+      <c r="E24">
+        <v>-0.04852997661094296</v>
+      </c>
+      <c r="F24">
+        <v>0.02969828655760787</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08963975274280161</v>
+        <v>0.08486930545299894</v>
       </c>
       <c r="C25">
-        <v>-0.0118089802904636</v>
+        <v>-0.004332542394322065</v>
       </c>
       <c r="D25">
-        <v>-0.08925659846238601</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1094880789058679</v>
+      </c>
+      <c r="E25">
+        <v>-0.03198914733376732</v>
+      </c>
+      <c r="F25">
+        <v>0.02657989084277678</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05869728203826372</v>
+        <v>0.05899933071490644</v>
       </c>
       <c r="C26">
-        <v>-0.0181412005854849</v>
+        <v>-0.01451696135839446</v>
       </c>
       <c r="D26">
-        <v>-0.01762397279150677</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04222657791643378</v>
+      </c>
+      <c r="E26">
+        <v>-0.02966906542556427</v>
+      </c>
+      <c r="F26">
+        <v>-0.005140953269622556</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1304710942906314</v>
+        <v>0.1414770912484634</v>
       </c>
       <c r="C28">
-        <v>-0.01040991917870323</v>
+        <v>-0.02226579025026167</v>
       </c>
       <c r="D28">
-        <v>0.2720366482945331</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2612744216587216</v>
+      </c>
+      <c r="E28">
+        <v>0.06749330405907668</v>
+      </c>
+      <c r="F28">
+        <v>0.003659651837971788</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02631235625251585</v>
+        <v>0.02886556135708193</v>
       </c>
       <c r="C29">
-        <v>-0.01008665041412196</v>
+        <v>-0.008786194065012888</v>
       </c>
       <c r="D29">
-        <v>-0.02082609615955665</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03129954789367355</v>
+      </c>
+      <c r="E29">
+        <v>-0.01403825102296141</v>
+      </c>
+      <c r="F29">
+        <v>-0.01243803262275418</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06733246633357422</v>
+        <v>0.05930609613450261</v>
       </c>
       <c r="C30">
-        <v>-0.01064087129628571</v>
+        <v>-0.002756280209733286</v>
       </c>
       <c r="D30">
-        <v>-0.05961260237395516</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08771285585464215</v>
+      </c>
+      <c r="E30">
+        <v>-0.01373317727003783</v>
+      </c>
+      <c r="F30">
+        <v>0.08005618129552138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05105736795049911</v>
+        <v>0.05129834239760548</v>
       </c>
       <c r="C31">
-        <v>-0.01697012664213671</v>
+        <v>-0.01567243224071714</v>
       </c>
       <c r="D31">
-        <v>-0.02034199476013363</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0243877245018423</v>
+      </c>
+      <c r="E31">
+        <v>-0.02883718002737483</v>
+      </c>
+      <c r="F31">
+        <v>-0.001039857317874726</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.0481021499070563</v>
+        <v>0.05158325756320919</v>
       </c>
       <c r="C32">
-        <v>-0.002388065957623764</v>
+        <v>0.001770936746227879</v>
       </c>
       <c r="D32">
-        <v>-0.01967097948712121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03654376215469972</v>
+      </c>
+      <c r="E32">
+        <v>-0.03470384247588791</v>
+      </c>
+      <c r="F32">
+        <v>0.0046331627749332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09353113571250604</v>
+        <v>0.0888401295558266</v>
       </c>
       <c r="C33">
-        <v>-0.01441751044832996</v>
+        <v>-0.006553607816369595</v>
       </c>
       <c r="D33">
-        <v>-0.07669980063526209</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1027909865212422</v>
+      </c>
+      <c r="E33">
+        <v>-0.04471275335414446</v>
+      </c>
+      <c r="F33">
+        <v>0.03959236522071052</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07141770521140409</v>
+        <v>0.06832271481229814</v>
       </c>
       <c r="C34">
-        <v>-0.01649580388752208</v>
+        <v>-0.01013317578768671</v>
       </c>
       <c r="D34">
-        <v>-0.08386678922314697</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1100722774778205</v>
+      </c>
+      <c r="E34">
+        <v>-0.03516732083909248</v>
+      </c>
+      <c r="F34">
+        <v>0.03317625475387414</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02396885548450408</v>
+        <v>0.02548075732270563</v>
       </c>
       <c r="C35">
-        <v>-0.002941719680705554</v>
+        <v>-0.002600319695749279</v>
       </c>
       <c r="D35">
-        <v>-0.006570753759207351</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01203376501971169</v>
+      </c>
+      <c r="E35">
+        <v>-0.01266687159550999</v>
+      </c>
+      <c r="F35">
+        <v>0.001616003514495772</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02710116444706097</v>
+        <v>0.02763100662256317</v>
       </c>
       <c r="C36">
-        <v>-0.008112545463907429</v>
+        <v>-0.006870517900277372</v>
       </c>
       <c r="D36">
-        <v>-0.03876603137970509</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03979339781045999</v>
+      </c>
+      <c r="E36">
+        <v>-0.01677668145165343</v>
+      </c>
+      <c r="F36">
+        <v>0.01527123139526893</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0002140944703353248</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0005569822045004308</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002167959078848115</v>
+      </c>
+      <c r="E37">
+        <v>0.0007626000430750276</v>
+      </c>
+      <c r="F37">
+        <v>-0.001512985589578779</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1172170276054323</v>
+        <v>0.1042587898530425</v>
       </c>
       <c r="C39">
-        <v>-0.02497943810523285</v>
+        <v>-0.01575022622135741</v>
       </c>
       <c r="D39">
-        <v>-0.1392081414523432</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1540003530328994</v>
+      </c>
+      <c r="E39">
+        <v>-0.0591190783961215</v>
+      </c>
+      <c r="F39">
+        <v>0.03080772849036041</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.04039755672242687</v>
+        <v>0.04142278958821415</v>
       </c>
       <c r="C40">
-        <v>-0.01020784693458012</v>
+        <v>-0.007148389065570344</v>
       </c>
       <c r="D40">
-        <v>-0.006726436001057536</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03017361131081562</v>
+      </c>
+      <c r="E40">
+        <v>-0.0009587249163941144</v>
+      </c>
+      <c r="F40">
+        <v>-0.01875692818946868</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02542386203889494</v>
+        <v>0.02770297464085953</v>
       </c>
       <c r="C41">
-        <v>-0.007183502481986202</v>
+        <v>-0.006822805835227967</v>
       </c>
       <c r="D41">
-        <v>-0.00957434099699909</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01075124527807841</v>
+      </c>
+      <c r="E41">
+        <v>-0.01226136257016804</v>
+      </c>
+      <c r="F41">
+        <v>-0.005627509986910512</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.0420950956932543</v>
+        <v>0.04103191181369507</v>
       </c>
       <c r="C43">
-        <v>-0.008489307129327831</v>
+        <v>-0.007132377953249427</v>
       </c>
       <c r="D43">
-        <v>-0.01259757517459264</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01859431271214324</v>
+      </c>
+      <c r="E43">
+        <v>-0.02559822180189341</v>
+      </c>
+      <c r="F43">
+        <v>-0.01286306368472156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.07623322259759967</v>
+        <v>0.0801163985820478</v>
       </c>
       <c r="C44">
-        <v>-0.02753675723835633</v>
+        <v>-0.01939117887633324</v>
       </c>
       <c r="D44">
-        <v>-0.07744937959510743</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09777671130519108</v>
+      </c>
+      <c r="E44">
+        <v>-0.06188552843586324</v>
+      </c>
+      <c r="F44">
+        <v>0.1604748190622556</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02071284152108314</v>
+        <v>0.02325490155658543</v>
       </c>
       <c r="C46">
-        <v>-0.003851032475111509</v>
+        <v>-0.003313829945892227</v>
       </c>
       <c r="D46">
-        <v>-0.005721331854708142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01290571396744686</v>
+      </c>
+      <c r="E46">
+        <v>-0.02588046348687384</v>
+      </c>
+      <c r="F46">
+        <v>-0.006984472110406509</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05334631248334219</v>
+        <v>0.05267510587941854</v>
       </c>
       <c r="C47">
-        <v>-0.004581052012371399</v>
+        <v>-0.003832544300291609</v>
       </c>
       <c r="D47">
-        <v>-0.007055638661297665</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0115469721082233</v>
+      </c>
+      <c r="E47">
+        <v>-0.02349196642181663</v>
+      </c>
+      <c r="F47">
+        <v>-0.03251438155965546</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04925473865642568</v>
+        <v>0.05004160801055932</v>
       </c>
       <c r="C48">
-        <v>-0.005294376686334984</v>
+        <v>-0.002166765157786164</v>
       </c>
       <c r="D48">
-        <v>-0.04083383060909011</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05072317243963051</v>
+      </c>
+      <c r="E48">
+        <v>0.004877837927455009</v>
+      </c>
+      <c r="F48">
+        <v>0.009775707766023612</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2012843165235466</v>
+        <v>0.1995842447007937</v>
       </c>
       <c r="C49">
-        <v>-0.02069705082951843</v>
+        <v>-0.01904397522824935</v>
       </c>
       <c r="D49">
-        <v>0.01722913560581277</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007145649054982037</v>
+      </c>
+      <c r="E49">
+        <v>-0.03009197730639282</v>
+      </c>
+      <c r="F49">
+        <v>0.0405884085682846</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.05036953388863653</v>
+        <v>0.0516965006650868</v>
       </c>
       <c r="C50">
-        <v>-0.01294877319778387</v>
+        <v>-0.01140969600398048</v>
       </c>
       <c r="D50">
-        <v>-0.01976342494801725</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02362743063027191</v>
+      </c>
+      <c r="E50">
+        <v>-0.02998547700073997</v>
+      </c>
+      <c r="F50">
+        <v>0.009839423432723628</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1553246054448061</v>
+        <v>0.1496635664270976</v>
       </c>
       <c r="C52">
-        <v>-0.01929140989838589</v>
+        <v>-0.01786101014074405</v>
       </c>
       <c r="D52">
-        <v>-0.05034841429867606</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04083571964248232</v>
+      </c>
+      <c r="E52">
+        <v>-0.02051857649208309</v>
+      </c>
+      <c r="F52">
+        <v>0.04343959632983069</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1726440732978464</v>
+        <v>0.1714745719007389</v>
       </c>
       <c r="C53">
-        <v>-0.0189402925826911</v>
+        <v>-0.0202018341543756</v>
       </c>
       <c r="D53">
-        <v>-0.01471097407705281</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003283674549423589</v>
+      </c>
+      <c r="E53">
+        <v>-0.02798127402170231</v>
+      </c>
+      <c r="F53">
+        <v>0.07297224275956608</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01805788701061708</v>
+        <v>0.02061648349653444</v>
       </c>
       <c r="C54">
-        <v>-0.0128156900344692</v>
+        <v>-0.01112368430804509</v>
       </c>
       <c r="D54">
-        <v>-0.02752042098362735</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03483421946640188</v>
+      </c>
+      <c r="E54">
+        <v>-0.02224147410184364</v>
+      </c>
+      <c r="F54">
+        <v>-0.001782395158895422</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1150404478253881</v>
+        <v>0.1150646554405151</v>
       </c>
       <c r="C55">
-        <v>-0.01721924570570629</v>
+        <v>-0.01776419568389916</v>
       </c>
       <c r="D55">
-        <v>-0.01209265578627272</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.00638606442517192</v>
+      </c>
+      <c r="E55">
+        <v>-0.02328401803949708</v>
+      </c>
+      <c r="F55">
+        <v>0.0467932430644468</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1784615508728072</v>
+        <v>0.1770025378933023</v>
       </c>
       <c r="C56">
-        <v>-0.01655571141247258</v>
+        <v>-0.01807535762083544</v>
       </c>
       <c r="D56">
-        <v>-0.01073970467793512</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.004175532956010535</v>
+      </c>
+      <c r="E56">
+        <v>-0.03158821640037691</v>
+      </c>
+      <c r="F56">
+        <v>0.05324142049156681</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04930681927141593</v>
+        <v>0.04461613130790551</v>
       </c>
       <c r="C58">
-        <v>-0.005903095964288251</v>
+        <v>0.0004153151163167662</v>
       </c>
       <c r="D58">
-        <v>-0.05412768986812279</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07179125581770539</v>
+      </c>
+      <c r="E58">
+        <v>-0.03276798968473806</v>
+      </c>
+      <c r="F58">
+        <v>-0.03641911962651459</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1606737591436959</v>
+        <v>0.1666429553385564</v>
       </c>
       <c r="C59">
-        <v>-0.012283733015637</v>
+        <v>-0.02249845624101304</v>
       </c>
       <c r="D59">
-        <v>0.2245740871199531</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2176557445157995</v>
+      </c>
+      <c r="E59">
+        <v>0.04671340741859831</v>
+      </c>
+      <c r="F59">
+        <v>-0.03453188980334931</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2372064330859307</v>
+        <v>0.2319311820334685</v>
       </c>
       <c r="C60">
-        <v>-0.0008122697924979579</v>
+        <v>0.001871793411498118</v>
       </c>
       <c r="D60">
-        <v>-0.04608607992949229</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03827047438227619</v>
+      </c>
+      <c r="E60">
+        <v>-0.006226895888101247</v>
+      </c>
+      <c r="F60">
+        <v>-0.000580316000259262</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08822649554077661</v>
+        <v>0.08005903880350251</v>
       </c>
       <c r="C61">
-        <v>-0.0186941735900297</v>
+        <v>-0.01126716252289559</v>
       </c>
       <c r="D61">
-        <v>-0.0977293996332856</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1177908079061332</v>
+      </c>
+      <c r="E61">
+        <v>-0.03916087489159957</v>
+      </c>
+      <c r="F61">
+        <v>0.01346468344010731</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1703908608144309</v>
+        <v>0.1690116502290256</v>
       </c>
       <c r="C62">
-        <v>-0.02064929598029237</v>
+        <v>-0.02086067388400498</v>
       </c>
       <c r="D62">
-        <v>-0.007063203594420874</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.004601821038036034</v>
+      </c>
+      <c r="E62">
+        <v>-0.03240663326704211</v>
+      </c>
+      <c r="F62">
+        <v>0.03672440192938232</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04405205250627906</v>
+        <v>0.04593611829453643</v>
       </c>
       <c r="C63">
-        <v>-0.006389034537168729</v>
+        <v>-0.00176116784189684</v>
       </c>
       <c r="D63">
-        <v>-0.0428336134890523</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05942704051887066</v>
+      </c>
+      <c r="E63">
+        <v>-0.02404169708399554</v>
+      </c>
+      <c r="F63">
+        <v>0.004108938791376114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1124138313515202</v>
+        <v>0.1108077972723935</v>
       </c>
       <c r="C64">
-        <v>-0.01477642812330809</v>
+        <v>-0.01145901881205552</v>
       </c>
       <c r="D64">
-        <v>-0.03208608956977155</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04305816053433487</v>
+      </c>
+      <c r="E64">
+        <v>-0.0225237799192796</v>
+      </c>
+      <c r="F64">
+        <v>0.02591085547489591</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1396478321412725</v>
+        <v>0.1508938105787567</v>
       </c>
       <c r="C65">
-        <v>-0.03267502252055352</v>
+        <v>-0.03433731646342767</v>
       </c>
       <c r="D65">
-        <v>0.04896370524112414</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04574534078362157</v>
+      </c>
+      <c r="E65">
+        <v>-0.004366096753211243</v>
+      </c>
+      <c r="F65">
+        <v>0.03599359758365442</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1401225330092367</v>
+        <v>0.1240900536939737</v>
       </c>
       <c r="C66">
-        <v>-0.02309075387255917</v>
+        <v>-0.01375311843759887</v>
       </c>
       <c r="D66">
-        <v>-0.1172044595542145</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1411906786089702</v>
+      </c>
+      <c r="E66">
+        <v>-0.06410589737669312</v>
+      </c>
+      <c r="F66">
+        <v>0.03427646813343158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06396410175101626</v>
+        <v>0.0572622434875113</v>
       </c>
       <c r="C67">
-        <v>-0.005578974474275757</v>
+        <v>-0.002868849398894346</v>
       </c>
       <c r="D67">
-        <v>-0.05261815637579151</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05543620475560364</v>
+      </c>
+      <c r="E67">
+        <v>-0.0164562089273469</v>
+      </c>
+      <c r="F67">
+        <v>-0.02952445235615426</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1039756947847751</v>
+        <v>0.1158982224252788</v>
       </c>
       <c r="C68">
-        <v>-0.0206455473203203</v>
+        <v>-0.03298880581311404</v>
       </c>
       <c r="D68">
-        <v>0.272410010210028</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2615498166631516</v>
+      </c>
+      <c r="E68">
+        <v>0.08762815730673414</v>
+      </c>
+      <c r="F68">
+        <v>-0.001741228411812439</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04021889133726382</v>
+        <v>0.03899785989717607</v>
       </c>
       <c r="C69">
-        <v>-0.001712433386451876</v>
+        <v>-0.001262711856206599</v>
       </c>
       <c r="D69">
-        <v>-0.007622420174493626</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007755000725686731</v>
+      </c>
+      <c r="E69">
+        <v>-0.02335861044577204</v>
+      </c>
+      <c r="F69">
+        <v>0.000801999952154768</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06756238848336096</v>
+        <v>0.0667824766225531</v>
       </c>
       <c r="C70">
-        <v>0.02382959146768253</v>
+        <v>0.02732307516102467</v>
       </c>
       <c r="D70">
-        <v>0.01498859647357856</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02450268044886277</v>
+      </c>
+      <c r="E70">
+        <v>0.03065286639101713</v>
+      </c>
+      <c r="F70">
+        <v>-0.1791584091739788</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1219025657077083</v>
+        <v>0.1357270820651838</v>
       </c>
       <c r="C71">
-        <v>-0.02405757364591052</v>
+        <v>-0.03735929707935816</v>
       </c>
       <c r="D71">
-        <v>0.2863154022245815</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2723889958153879</v>
+      </c>
+      <c r="E71">
+        <v>0.09754514863183779</v>
+      </c>
+      <c r="F71">
+        <v>0.004213647059506419</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.138446343644583</v>
+        <v>0.1428207875481208</v>
       </c>
       <c r="C72">
-        <v>-0.02715237136140584</v>
+        <v>-0.02751178067426215</v>
       </c>
       <c r="D72">
-        <v>-0.001270933042280524</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.00494110264657041</v>
+      </c>
+      <c r="E72">
+        <v>-0.03581471780970757</v>
+      </c>
+      <c r="F72">
+        <v>0.03060474898857975</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2063008627651888</v>
+        <v>0.2046239226263928</v>
       </c>
       <c r="C73">
-        <v>-0.01663164463655304</v>
+        <v>-0.01336406603527887</v>
       </c>
       <c r="D73">
-        <v>-0.01571375390080665</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01676753081773396</v>
+      </c>
+      <c r="E73">
+        <v>-0.06354230907359974</v>
+      </c>
+      <c r="F73">
+        <v>0.03960198944859543</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09305663761676139</v>
+        <v>0.09542022859210128</v>
       </c>
       <c r="C74">
-        <v>-0.01329612118632346</v>
+        <v>-0.01369069563521671</v>
       </c>
       <c r="D74">
-        <v>-0.02205690180433264</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0155239669293335</v>
+      </c>
+      <c r="E74">
+        <v>-0.04339340777092491</v>
+      </c>
+      <c r="F74">
+        <v>0.05620566908692622</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1339080454226592</v>
+        <v>0.1276531227418338</v>
       </c>
       <c r="C75">
-        <v>-0.02996276439397801</v>
+        <v>-0.02858336941410591</v>
       </c>
       <c r="D75">
-        <v>-0.02894152674774939</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02834816183174922</v>
+      </c>
+      <c r="E75">
+        <v>-0.05640045468176062</v>
+      </c>
+      <c r="F75">
+        <v>0.02214987505874321</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08468320822277947</v>
+        <v>0.0893979498724987</v>
       </c>
       <c r="C77">
-        <v>-0.01547320660740703</v>
+        <v>-0.008027048308339483</v>
       </c>
       <c r="D77">
-        <v>-0.09444005716942803</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1139630323319956</v>
+      </c>
+      <c r="E77">
+        <v>-0.0432020355894319</v>
+      </c>
+      <c r="F77">
+        <v>0.03495612006049072</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1050146379511938</v>
+        <v>0.1006453209974735</v>
       </c>
       <c r="C78">
-        <v>-0.04652699537134039</v>
+        <v>-0.03943081982322458</v>
       </c>
       <c r="D78">
-        <v>-0.1000840446048729</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1150066123464828</v>
+      </c>
+      <c r="E78">
+        <v>-0.07589653467902385</v>
+      </c>
+      <c r="F78">
+        <v>0.05177248204684067</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1638626847042668</v>
+        <v>0.1638185134023745</v>
       </c>
       <c r="C79">
-        <v>-0.02365754617362942</v>
+        <v>-0.02334380412984631</v>
       </c>
       <c r="D79">
-        <v>-0.0151055143306437</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01175752800254387</v>
+      </c>
+      <c r="E79">
+        <v>-0.04412345484713213</v>
+      </c>
+      <c r="F79">
+        <v>0.01184242923250505</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08623013266055055</v>
+        <v>0.08229795970165177</v>
       </c>
       <c r="C80">
-        <v>-0.001965335875120122</v>
+        <v>0.0005915956258724389</v>
       </c>
       <c r="D80">
-        <v>-0.04344823876659334</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0553880405955418</v>
+      </c>
+      <c r="E80">
+        <v>-0.03543098940385368</v>
+      </c>
+      <c r="F80">
+        <v>-0.01973905948543896</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1201693768109552</v>
+        <v>0.1181701878948354</v>
       </c>
       <c r="C81">
-        <v>-0.03207503983733333</v>
+        <v>-0.03204450798231713</v>
       </c>
       <c r="D81">
-        <v>-0.02336633055673933</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01340217735972418</v>
+      </c>
+      <c r="E81">
+        <v>-0.05479313384291697</v>
+      </c>
+      <c r="F81">
+        <v>0.01966088325076885</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1663650309740797</v>
+        <v>0.1662617388429189</v>
       </c>
       <c r="C82">
-        <v>-0.02437196220294221</v>
+        <v>-0.02557825135987843</v>
       </c>
       <c r="D82">
-        <v>-0.01442688000147244</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.001085356283767032</v>
+      </c>
+      <c r="E82">
+        <v>-0.0242169680390033</v>
+      </c>
+      <c r="F82">
+        <v>0.08081514449507364</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06705149911167185</v>
+        <v>0.0587125885993103</v>
       </c>
       <c r="C83">
-        <v>-0.006411402242774586</v>
+        <v>-0.00299461315448541</v>
       </c>
       <c r="D83">
-        <v>-0.03398434125310631</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04948623275635097</v>
+      </c>
+      <c r="E83">
+        <v>-0.002871723980560522</v>
+      </c>
+      <c r="F83">
+        <v>-0.02913234494857933</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06491803692176532</v>
+        <v>0.05834726377129043</v>
       </c>
       <c r="C84">
-        <v>-0.01490327107778964</v>
+        <v>-0.01081649863550147</v>
       </c>
       <c r="D84">
-        <v>-0.06493957691405074</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07259174255000607</v>
+      </c>
+      <c r="E84">
+        <v>-0.01444664061846044</v>
+      </c>
+      <c r="F84">
+        <v>0.01425819330830752</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1368797893448841</v>
+        <v>0.135523048909181</v>
       </c>
       <c r="C85">
-        <v>-0.02816761865222515</v>
+        <v>-0.02854287890419931</v>
       </c>
       <c r="D85">
-        <v>-0.01826463700367194</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.007849611481910303</v>
+      </c>
+      <c r="E85">
+        <v>-0.03508705222825304</v>
+      </c>
+      <c r="F85">
+        <v>0.04677627628416624</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1038250270087054</v>
+        <v>0.09316302922659581</v>
       </c>
       <c r="C86">
-        <v>0.001313506115692093</v>
+        <v>0.006389404701533094</v>
       </c>
       <c r="D86">
-        <v>0.009056714211464209</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05052508095826109</v>
+      </c>
+      <c r="E86">
+        <v>-0.2432923723250293</v>
+      </c>
+      <c r="F86">
+        <v>-0.9023675090146072</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1010137349809315</v>
+        <v>0.09447251876084832</v>
       </c>
       <c r="C87">
-        <v>-0.02909750364616824</v>
+        <v>-0.01936816987919497</v>
       </c>
       <c r="D87">
-        <v>-0.06529820292616791</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09457220935810216</v>
+      </c>
+      <c r="E87">
+        <v>0.05281936935934411</v>
+      </c>
+      <c r="F87">
+        <v>0.04778473128656108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06110206472009704</v>
+        <v>0.06047864705313873</v>
       </c>
       <c r="C88">
-        <v>-0.00523506423409126</v>
+        <v>-0.002292848528748854</v>
       </c>
       <c r="D88">
-        <v>-0.05431058126294773</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04936659613514454</v>
+      </c>
+      <c r="E88">
+        <v>-0.0239557443142843</v>
+      </c>
+      <c r="F88">
+        <v>0.01535443738745166</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1160064296343186</v>
+        <v>0.126883488026751</v>
       </c>
       <c r="C89">
-        <v>-0.001590842851255069</v>
+        <v>-0.01283405466104496</v>
       </c>
       <c r="D89">
-        <v>0.260703573824148</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2435480822900391</v>
+      </c>
+      <c r="E89">
+        <v>0.08923230836576761</v>
+      </c>
+      <c r="F89">
+        <v>-0.01201431498713494</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1329540087352264</v>
+        <v>0.1503248546508631</v>
       </c>
       <c r="C90">
-        <v>-0.0208540326391065</v>
+        <v>-0.03405519498990486</v>
       </c>
       <c r="D90">
-        <v>0.2741711205434991</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2700098683078203</v>
+      </c>
+      <c r="E90">
+        <v>0.1137045025960354</v>
+      </c>
+      <c r="F90">
+        <v>-0.01262479983202957</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1199796158378788</v>
+        <v>0.1215414306723149</v>
       </c>
       <c r="C91">
-        <v>-0.01910632957373549</v>
+        <v>-0.02024391158988241</v>
       </c>
       <c r="D91">
-        <v>0.00842455725341143</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.0169970312899197</v>
+      </c>
+      <c r="E91">
+        <v>-0.05429007679644447</v>
+      </c>
+      <c r="F91">
+        <v>-0.0008033199613918116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1371149613482973</v>
+        <v>0.1466455793202094</v>
       </c>
       <c r="C92">
-        <v>-0.01083094217089763</v>
+        <v>-0.02452733799000589</v>
       </c>
       <c r="D92">
-        <v>0.308966241465906</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2902924701190934</v>
+      </c>
+      <c r="E92">
+        <v>0.1013903019317717</v>
+      </c>
+      <c r="F92">
+        <v>-0.02099649433702897</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.136437204775168</v>
+        <v>0.1505800961360172</v>
       </c>
       <c r="C93">
-        <v>-0.01639513051781523</v>
+        <v>-0.02888505690588481</v>
       </c>
       <c r="D93">
-        <v>0.269517217547568</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2651828464194963</v>
+      </c>
+      <c r="E93">
+        <v>0.07608639659670313</v>
+      </c>
+      <c r="F93">
+        <v>-0.00202994402929244</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1349445919225635</v>
+        <v>0.1284285757524781</v>
       </c>
       <c r="C94">
-        <v>-0.02699277003287179</v>
+        <v>-0.02506552810437885</v>
       </c>
       <c r="D94">
-        <v>-0.04311487236810514</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04001131430001075</v>
+      </c>
+      <c r="E94">
+        <v>-0.05638596925397942</v>
+      </c>
+      <c r="F94">
+        <v>0.03523751634426227</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1262286956426089</v>
+        <v>0.1256884476505433</v>
       </c>
       <c r="C95">
-        <v>-0.01078602297664935</v>
+        <v>-0.003228416776665549</v>
       </c>
       <c r="D95">
-        <v>-0.07619368552334935</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09834076230878144</v>
+      </c>
+      <c r="E95">
+        <v>-0.05320450197609954</v>
+      </c>
+      <c r="F95">
+        <v>-0.005592609326072018</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.117064452872834</v>
+        <v>0.1106243813067498</v>
       </c>
       <c r="C96">
-        <v>0.9873626222626234</v>
+        <v>0.9869518469293647</v>
       </c>
       <c r="D96">
-        <v>0.008077161979466875</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05114723971866589</v>
+      </c>
+      <c r="E96">
+        <v>-0.05238052287379306</v>
+      </c>
+      <c r="F96">
+        <v>0.04320049464981333</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1916162400218388</v>
+        <v>0.1922236373368958</v>
       </c>
       <c r="C97">
-        <v>0.006295182046438997</v>
+        <v>0.006421678882607577</v>
       </c>
       <c r="D97">
-        <v>0.01465189118975563</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.021318572958572</v>
+      </c>
+      <c r="E97">
+        <v>-0.0204382726937015</v>
+      </c>
+      <c r="F97">
+        <v>-0.09210696592756977</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2000594003450835</v>
+        <v>0.2064177624658736</v>
       </c>
       <c r="C98">
-        <v>-0.01054118082668669</v>
+        <v>-0.007284361581256352</v>
       </c>
       <c r="D98">
-        <v>-0.01296013838408273</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01329715927053641</v>
+      </c>
+      <c r="E98">
+        <v>0.07492966910981498</v>
+      </c>
+      <c r="F98">
+        <v>-0.09231314616170321</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05660480721155722</v>
+        <v>0.05484107644820871</v>
       </c>
       <c r="C99">
-        <v>0.002019454410716882</v>
+        <v>0.004383246719067189</v>
       </c>
       <c r="D99">
-        <v>-0.022919801256571</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03831283042481659</v>
+      </c>
+      <c r="E99">
+        <v>-0.02122945557705021</v>
+      </c>
+      <c r="F99">
+        <v>0.003635329299107141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1412878137875771</v>
+        <v>0.1286447108377926</v>
       </c>
       <c r="C100">
-        <v>0.0373416725364376</v>
+        <v>0.05299903252794556</v>
       </c>
       <c r="D100">
-        <v>-0.4256164382560074</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3498082846322375</v>
+      </c>
+      <c r="E100">
+        <v>0.8828034656277305</v>
+      </c>
+      <c r="F100">
+        <v>-0.1690485022371317</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.0261607966582314</v>
+        <v>0.02880992467687445</v>
       </c>
       <c r="C101">
-        <v>-0.009987546178941799</v>
+        <v>-0.008799423194073076</v>
       </c>
       <c r="D101">
-        <v>-0.02048709082400973</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.0309645654118622</v>
+      </c>
+      <c r="E101">
+        <v>-0.01345685580448834</v>
+      </c>
+      <c r="F101">
+        <v>-0.01361713140080709</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
